--- a/Datos/Bases JASP/Binomiales_Wins_x.xlsx
+++ b/Datos/Bases JASP/Binomiales_Wins_x.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Periodo</t>
   </si>
@@ -98,10 +98,13 @@
     <t>Right 4</t>
   </si>
   <si>
-    <t>Right 1</t>
+    <t>1+O:O</t>
   </si>
   <si>
-    <t>1+O:O</t>
+    <t>Right1_2</t>
+  </si>
+  <si>
+    <t>Right 2</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +523,10 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
@@ -1288,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">

--- a/Datos/Bases JASP/Binomiales_Wins_x.xlsx
+++ b/Datos/Bases JASP/Binomiales_Wins_x.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Periodo</t>
   </si>
@@ -98,13 +98,58 @@
     <t>Right 4</t>
   </si>
   <si>
-    <t>1+O:O</t>
-  </si>
-  <si>
     <t>Right1_2</t>
   </si>
   <si>
     <t>Right 2</t>
+  </si>
+  <si>
+    <t>Ply1_-sbj</t>
+  </si>
+  <si>
+    <t>Low1_1</t>
+  </si>
+  <si>
+    <t>Low1_2</t>
+  </si>
+  <si>
+    <t>Low 2</t>
+  </si>
+  <si>
+    <t>Low 3</t>
+  </si>
+  <si>
+    <t>Low 4</t>
+  </si>
+  <si>
+    <t>Low 5</t>
+  </si>
+  <si>
+    <t>Sesion_2</t>
+  </si>
+  <si>
+    <t>W_Periodo1</t>
+  </si>
+  <si>
+    <t>W_Periodo2</t>
+  </si>
+  <si>
+    <t>W_Periodo3</t>
+  </si>
+  <si>
+    <t>W_Periodo4</t>
+  </si>
+  <si>
+    <t>W_Periodo5</t>
+  </si>
+  <si>
+    <t>W_Periodo6</t>
+  </si>
+  <si>
+    <t>W_Periodo7</t>
+  </si>
+  <si>
+    <t>W_Periodo8</t>
   </si>
 </sst>
 </file>
@@ -129,7 +174,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +211,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -179,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -187,6 +262,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:AP115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,22 +560,24 @@
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" customWidth="1"/>
-    <col min="22" max="26" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="27" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="28" max="33" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -508,73 +591,121 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -587,23 +718,23 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -612,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -630,31 +761,79 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>1</v>
-      </c>
-      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>6</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>6</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
       <c r="Z2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -667,32 +846,32 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,40 +880,88 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3" s="5">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5">
         <v>7</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
         <v>8</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -747,29 +974,29 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -784,10 +1011,10 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -795,26 +1022,74 @@
       <c r="T4">
         <v>1</v>
       </c>
-      <c r="U4" s="5">
-        <v>1</v>
-      </c>
-      <c r="V4">
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1</v>
+      </c>
+      <c r="W4">
         <v>7</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
       <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>7</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
       <c r="Z4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>4</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -827,29 +1102,29 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -858,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -875,26 +1150,74 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
         <v>7</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -907,19 +1230,19 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6">
@@ -932,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -950,31 +1273,79 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
-      <c r="U6" s="6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>6</v>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
       </c>
       <c r="W6">
         <v>6</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>6</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -987,32 +1358,32 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1021,40 +1392,88 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
         <v>6</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>7</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1067,19 +1486,19 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>1</v>
       </c>
       <c r="J8">
@@ -1095,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1113,28 +1532,76 @@
         <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5">
-        <v>1</v>
-      </c>
-      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
         <v>1</v>
       </c>
       <c r="W8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>4</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>8</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1147,20 +1614,20 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1169,84 +1636,132 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" s="5">
         <v>2</v>
-      </c>
-      <c r="V9">
-        <v>7</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>9</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1255,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1273,30 +1788,78 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="5">
-        <v>7</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>10</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1305,105 +1868,126 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
-      <c r="U11" s="5">
-        <v>7</v>
-      </c>
-      <c r="V11">
-        <v>7</v>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>6</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1421,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -1430,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12" s="5">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12" s="5">
+        <v>6</v>
       </c>
       <c r="W12">
         <v>7</v>
@@ -1448,208 +2032,271 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <v>6</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14" s="5">
+        <v>7</v>
+      </c>
+      <c r="W14">
+        <v>7</v>
+      </c>
+      <c r="X14">
         <v>2</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13" s="5">
-        <v>8</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>2</v>
-      </c>
-      <c r="Z13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
-        <v>6</v>
-      </c>
-      <c r="V14">
-        <v>7</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1664,10 +2311,10 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1675,17 +2322,17 @@
       <c r="T15">
         <v>1</v>
       </c>
-      <c r="U15" s="5">
-        <v>1</v>
-      </c>
-      <c r="V15">
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5">
         <v>7</v>
       </c>
       <c r="W15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1693,10 +2340,31 @@
       <c r="Z15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1705,78 +2373,99 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>2</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>2</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0</v>
-      </c>
-      <c r="V16">
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16" s="5">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>7</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
         <v>8</v>
       </c>
-      <c r="W16">
-        <v>6</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>2</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1785,31 +2474,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1818,161 +2507,203 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>2</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17" s="5">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17" s="5">
         <v>8</v>
       </c>
-      <c r="V17">
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>4</v>
-      </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
         <v>6</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18" s="5">
-        <v>6</v>
-      </c>
-      <c r="V18">
-        <v>6</v>
-      </c>
       <c r="W18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1984,39 +2715,60 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1</v>
+      </c>
+      <c r="W19">
         <v>7</v>
       </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
       <c r="X19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2025,78 +2777,99 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
         <v>2</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20" s="5">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X20">
         <v>6</v>
       </c>
       <c r="Y20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -2107,26 +2880,26 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2138,13 +2911,13 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2155,28 +2928,49 @@
       <c r="T21">
         <v>1</v>
       </c>
-      <c r="U21" s="5">
-        <v>3</v>
-      </c>
-      <c r="V21">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21" s="5">
         <v>8</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2185,22 +2979,22 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2209,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2227,36 +3021,57 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22" s="5">
-        <v>7</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22" s="5">
+        <v>6</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2265,22 +3080,22 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2292,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2310,33 +3125,54 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <v>1</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <v>7</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
         <v>6</v>
       </c>
-      <c r="V23">
-        <v>7</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>2</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -2347,29 +3183,29 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2381,72 +3217,93 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
         <v>2</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>1</v>
       </c>
       <c r="W24">
         <v>1</v>
       </c>
       <c r="X24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y24">
+        <v>6</v>
+      </c>
+      <c r="Z24">
         <v>8</v>
       </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2455,16 +3312,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2473,54 +3330,75 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25" s="5">
+        <v>3</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2535,10 +3413,10 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -2553,30 +3431,51 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26" s="5">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26" s="5">
+        <v>7</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2587,32 +3486,32 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2621,75 +3520,96 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>1</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>2</v>
       </c>
-      <c r="U27" s="5">
-        <v>4</v>
-      </c>
-      <c r="V27">
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27" s="5">
+        <v>6</v>
+      </c>
+      <c r="W27">
         <v>7</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
       <c r="X27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2704,146 +3624,188 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>1</v>
       </c>
       <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28" s="5">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28" s="5">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
         <v>7</v>
       </c>
-      <c r="V28">
-        <v>6</v>
-      </c>
-      <c r="W28">
-        <v>2</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
       <c r="Z28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29" s="5">
-        <v>7</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29" s="5">
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>6</v>
       </c>
       <c r="Z29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2852,16 +3814,16 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -2870,60 +3832,81 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
-      <c r="U30" s="5">
-        <v>6</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30" s="5">
+        <v>0</v>
       </c>
       <c r="W30">
         <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>7</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2938,10 +3921,10 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -2950,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
         <v>2</v>
       </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31" s="5">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
+      <c r="V31" s="5">
+        <v>4</v>
       </c>
       <c r="W31">
         <v>7</v>
@@ -2968,15 +3951,36 @@
         <v>0</v>
       </c>
       <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
         <v>2</v>
       </c>
-      <c r="Z31">
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>9</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2985,34 +3989,34 @@
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3021,42 +4025,63 @@
         <v>1</v>
       </c>
       <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32" s="5">
+        <v>7</v>
+      </c>
+      <c r="W32">
+        <v>6</v>
+      </c>
+      <c r="X32">
         <v>2</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32" s="5">
-        <v>7</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>9</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -3065,28 +4090,28 @@
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -3095,164 +4120,206 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33" s="5">
-        <v>6</v>
-      </c>
-      <c r="V33">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33" s="5">
+        <v>7</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33">
         <v>2</v>
       </c>
       <c r="Y33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34" s="5">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5">
+        <v>6</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
         <v>6</v>
       </c>
-      <c r="Y34">
-        <v>7</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -3261,66 +4328,87 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35" s="5">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35" s="5">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
         <v>7</v>
       </c>
-      <c r="V35">
-        <v>7</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
       <c r="Y35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -3335,48 +4423,69 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36">
         <v>1</v>
       </c>
       <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
         <v>2</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36" s="5">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
+      <c r="V36" s="5">
+        <v>7</v>
       </c>
       <c r="W36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
         <v>8</v>
       </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -3385,25 +4494,25 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3415,152 +4524,835 @@
         <v>1</v>
       </c>
       <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37" s="5">
+        <v>6</v>
+      </c>
+      <c r="W37">
+        <v>8</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>2</v>
+      </c>
+      <c r="Z37">
+        <v>2</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>6</v>
+      </c>
+      <c r="Z38">
         <v>7</v>
       </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39" s="5">
         <v>7</v>
       </c>
-      <c r="U37" s="5">
+      <c r="W39">
         <v>7</v>
       </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="Z37">
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>4</v>
+      </c>
+      <c r="Y40">
+        <v>5</v>
+      </c>
+      <c r="Z40">
+        <v>8</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U38" s="5"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U39" s="5"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U40" s="5"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U41" s="5"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U42" s="5"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U43" s="5"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U44" s="5"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U45" s="5"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U46" s="5"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U47" s="5"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U48" s="5"/>
-    </row>
-    <row r="49" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U49" s="5"/>
-    </row>
-    <row r="50" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U50" s="5"/>
-    </row>
-    <row r="51" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U51" s="5"/>
-    </row>
-    <row r="52" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U52" s="5"/>
-    </row>
-    <row r="53" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U53" s="5"/>
-    </row>
-    <row r="54" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U54" s="5"/>
-    </row>
-    <row r="55" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U55" s="5"/>
-    </row>
-    <row r="56" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U56" s="5"/>
-    </row>
-    <row r="57" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U57" s="5"/>
-    </row>
-    <row r="58" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U58" s="5"/>
-    </row>
-    <row r="59" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U59" s="5"/>
-    </row>
-    <row r="60" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U60" s="5"/>
-    </row>
-    <row r="61" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U61" s="5"/>
-    </row>
-    <row r="62" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U62" s="5"/>
-    </row>
-    <row r="63" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U63" s="5"/>
-    </row>
-    <row r="64" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U64" s="5"/>
-    </row>
-    <row r="65" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U65" s="5"/>
-    </row>
-    <row r="66" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U66" s="5"/>
-    </row>
-    <row r="67" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U67" s="5"/>
-    </row>
-    <row r="68" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U68" s="5"/>
-    </row>
-    <row r="69" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U69" s="5"/>
-    </row>
-    <row r="70" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U70" s="5"/>
-    </row>
-    <row r="71" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U71" s="5"/>
-    </row>
-    <row r="72" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U72" s="5"/>
-    </row>
-    <row r="73" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U73" s="5"/>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>7</v>
+      </c>
+      <c r="V41" s="5">
+        <v>7</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>7</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E42" s="8"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E43" s="8"/>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E44" s="8"/>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E45" s="8"/>
+      <c r="V45" s="5"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E46" s="8"/>
+      <c r="V46" s="5"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="12"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E47" s="8"/>
+      <c r="V47" s="5"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="12"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E48" s="8"/>
+      <c r="V48" s="5"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="12"/>
+    </row>
+    <row r="49" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E49" s="8"/>
+      <c r="V49" s="5"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="12"/>
+    </row>
+    <row r="50" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E50" s="8"/>
+      <c r="V50" s="5"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="12"/>
+    </row>
+    <row r="51" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E51" s="8"/>
+      <c r="V51" s="5"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="12"/>
+    </row>
+    <row r="52" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E52" s="8"/>
+      <c r="V52" s="5"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="12"/>
+    </row>
+    <row r="53" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E53" s="8"/>
+      <c r="V53" s="5"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="12"/>
+    </row>
+    <row r="54" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E54" s="8"/>
+      <c r="V54" s="5"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="12"/>
+    </row>
+    <row r="55" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E55" s="8"/>
+      <c r="V55" s="5"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="12"/>
+    </row>
+    <row r="56" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E56" s="8"/>
+      <c r="V56" s="5"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="12"/>
+    </row>
+    <row r="57" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E57" s="8"/>
+      <c r="V57" s="5"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="12"/>
+    </row>
+    <row r="58" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E58" s="8"/>
+      <c r="V58" s="5"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="12"/>
+    </row>
+    <row r="59" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E59" s="8"/>
+      <c r="V59" s="5"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="12"/>
+    </row>
+    <row r="60" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E60" s="8"/>
+      <c r="V60" s="5"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="12"/>
+    </row>
+    <row r="61" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E61" s="8"/>
+      <c r="V61" s="5"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="12"/>
+    </row>
+    <row r="62" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E62" s="8"/>
+      <c r="V62" s="5"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="12"/>
+    </row>
+    <row r="63" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E63" s="8"/>
+      <c r="V63" s="5"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="12"/>
+    </row>
+    <row r="64" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E64" s="8"/>
+      <c r="V64" s="5"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="12"/>
+    </row>
+    <row r="65" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E65" s="8"/>
+      <c r="V65" s="5"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="12"/>
+    </row>
+    <row r="66" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E66" s="8"/>
+      <c r="V66" s="5"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="12"/>
+    </row>
+    <row r="67" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E67" s="8"/>
+      <c r="V67" s="5"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="12"/>
+    </row>
+    <row r="68" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E68" s="8"/>
+      <c r="V68" s="5"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="12"/>
+    </row>
+    <row r="69" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E69" s="8"/>
+      <c r="V69" s="5"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="12"/>
+    </row>
+    <row r="70" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E70" s="8"/>
+      <c r="V70" s="5"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="12"/>
+    </row>
+    <row r="71" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E71" s="8"/>
+      <c r="V71" s="5"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="12"/>
+    </row>
+    <row r="72" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E72" s="8"/>
+      <c r="V72" s="5"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="12"/>
+    </row>
+    <row r="73" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E73" s="8"/>
+      <c r="V73" s="5"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="12"/>
+    </row>
+    <row r="74" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E74" s="8"/>
+      <c r="V74" s="5"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="12"/>
+    </row>
+    <row r="75" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E75" s="8"/>
+      <c r="V75" s="5"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="12"/>
+    </row>
+    <row r="76" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E76" s="8"/>
+      <c r="V76" s="5"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="12"/>
+    </row>
+    <row r="77" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E77" s="8"/>
+      <c r="V77" s="5"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="12"/>
+    </row>
+    <row r="78" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E78" s="8"/>
+      <c r="AD78" s="10"/>
+      <c r="AE78" s="12"/>
+    </row>
+    <row r="79" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E79" s="8"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="12"/>
+    </row>
+    <row r="80" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E80" s="8"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="12"/>
+    </row>
+    <row r="81" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E81" s="8"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="12"/>
+    </row>
+    <row r="82" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E82" s="8"/>
+      <c r="AD82" s="10"/>
+      <c r="AE82" s="12"/>
+    </row>
+    <row r="83" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E83" s="8"/>
+      <c r="AD83" s="10"/>
+      <c r="AE83" s="12"/>
+    </row>
+    <row r="84" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E84" s="8"/>
+      <c r="AD84" s="10"/>
+      <c r="AE84" s="12"/>
+    </row>
+    <row r="85" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E85" s="8"/>
+      <c r="AD85" s="10"/>
+      <c r="AE85" s="12"/>
+    </row>
+    <row r="86" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E86" s="8"/>
+      <c r="AD86" s="10"/>
+      <c r="AE86" s="12"/>
+    </row>
+    <row r="87" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E87" s="8"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="12"/>
+    </row>
+    <row r="88" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E88" s="8"/>
+      <c r="AD88" s="10"/>
+      <c r="AE88" s="12"/>
+    </row>
+    <row r="89" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E89" s="8"/>
+      <c r="AD89" s="10"/>
+      <c r="AE89" s="12"/>
+    </row>
+    <row r="90" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E90" s="8"/>
+      <c r="AD90" s="10"/>
+      <c r="AE90" s="12"/>
+    </row>
+    <row r="91" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E91" s="8"/>
+      <c r="AD91" s="10"/>
+      <c r="AE91" s="12"/>
+    </row>
+    <row r="92" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E92" s="8"/>
+      <c r="AD92" s="10"/>
+      <c r="AE92" s="12"/>
+    </row>
+    <row r="93" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E93" s="8"/>
+      <c r="AD93" s="10"/>
+      <c r="AE93" s="12"/>
+    </row>
+    <row r="94" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E94" s="8"/>
+      <c r="AD94" s="10"/>
+      <c r="AE94" s="12"/>
+    </row>
+    <row r="95" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E95" s="8"/>
+      <c r="AE95" s="12"/>
+    </row>
+    <row r="96" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E96" s="8"/>
+      <c r="AE96" s="12"/>
+    </row>
+    <row r="97" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E97" s="8"/>
+      <c r="AE97" s="12"/>
+    </row>
+    <row r="98" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E98" s="8"/>
+      <c r="AE98" s="12"/>
+    </row>
+    <row r="99" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E99" s="8"/>
+      <c r="AE99" s="12"/>
+    </row>
+    <row r="100" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E100" s="8"/>
+      <c r="AE100" s="12"/>
+    </row>
+    <row r="101" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E101" s="8"/>
+      <c r="AE101" s="12"/>
+    </row>
+    <row r="102" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E102" s="8"/>
+      <c r="AE102" s="12"/>
+    </row>
+    <row r="103" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E103" s="8"/>
+      <c r="AE103" s="12"/>
+    </row>
+    <row r="104" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E104" s="8"/>
+      <c r="AE104" s="12"/>
+    </row>
+    <row r="105" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE105" s="12"/>
+    </row>
+    <row r="106" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE106" s="12"/>
+    </row>
+    <row r="107" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE107" s="12"/>
+    </row>
+    <row r="108" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE108" s="12"/>
+    </row>
+    <row r="109" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE109" s="12"/>
+    </row>
+    <row r="110" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE110" s="12"/>
+    </row>
+    <row r="111" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE111" s="12"/>
+    </row>
+    <row r="112" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE112" s="12"/>
+    </row>
+    <row r="113" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AE113" s="12"/>
+    </row>
+    <row r="114" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AE114" s="12"/>
+    </row>
+    <row r="115" spans="31:31" x14ac:dyDescent="0.25">
+      <c r="AE115" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datos/Bases JASP/Binomiales_Wins_x.xlsx
+++ b/Datos/Bases JASP/Binomiales_Wins_x.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Jaime_Lab25\Datos\Bases JASP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Jaime_Lab25\Datos\Bases JASP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:AP115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL17" sqref="AL17"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,22 +559,20 @@
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="27" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="33" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" customWidth="1"/>
+    <col min="23" max="33" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -1731,22 +1729,22 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -1758,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1773,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1791,16 +1789,16 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1809,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="7">
         <v>0</v>
@@ -1859,7 +1857,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1868,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1883,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1901,13 +1899,13 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -1919,13 +1917,13 @@
         <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X11">
         <v>1</v>
@@ -1937,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="AA11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="7">
         <v>0</v>
@@ -1960,22 +1958,22 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1984,19 +1982,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2005,40 +2003,40 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
         <v>7</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="7">
         <v>1</v>
@@ -2061,85 +2059,85 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>1</v>
       </c>
       <c r="V13" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB13" s="7">
         <v>0</v>
@@ -2162,7 +2160,7 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2189,58 +2187,58 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W14">
         <v>7</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="7">
         <v>1</v>
@@ -2263,22 +2261,22 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -2296,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2314,31 +2312,31 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>7</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>1</v>
@@ -2364,7 +2362,7 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2373,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -2388,19 +2386,19 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2409,40 +2407,40 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>2</v>
       </c>
       <c r="AA16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="7">
         <v>0</v>
@@ -2465,7 +2463,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2474,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
@@ -2486,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2513,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2522,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -2531,7 +2529,7 @@
         <v>8</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -2540,10 +2538,10 @@
         <v>1</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="7">
         <v>1</v>
@@ -2566,7 +2564,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2596,55 +2594,55 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="5">
         <v>6</v>
       </c>
       <c r="W18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="7">
         <v>1</v>
@@ -2667,22 +2665,22 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -2691,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2706,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -2724,28 +2722,28 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
         <v>6</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>1</v>
       </c>
       <c r="AB19" s="7">
         <v>1</v>
@@ -2768,7 +2766,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2777,25 +2775,25 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2810,13 +2808,13 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2828,25 +2826,25 @@
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>6</v>
+      </c>
+      <c r="Z20">
         <v>8</v>
       </c>
-      <c r="X20">
-        <v>6</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>2</v>
-      </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="7">
         <v>1</v>
@@ -2869,7 +2867,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -2887,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2905,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2914,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -2923,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2932,19 +2930,19 @@
         <v>1</v>
       </c>
       <c r="V21" s="5">
+        <v>3</v>
+      </c>
+      <c r="W21">
         <v>8</v>
       </c>
-      <c r="W21">
-        <v>5</v>
-      </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>1</v>
@@ -2970,7 +2968,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2979,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -2994,16 +2992,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3015,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3033,13 +3031,13 @@
         <v>1</v>
       </c>
       <c r="V22" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -3048,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB22" s="7">
         <v>1</v>
@@ -3071,85 +3069,85 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23" s="5">
         <v>6</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23" s="5">
+      <c r="W23">
         <v>7</v>
       </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="7">
         <v>1</v>
@@ -3172,7 +3170,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3199,13 +3197,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -3214,16 +3212,16 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -3232,25 +3230,25 @@
         <v>2</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z24">
         <v>8</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="7">
         <v>1</v>
@@ -3273,19 +3271,19 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -3294,13 +3292,13 @@
         <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3312,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3330,28 +3328,28 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="7">
         <v>1</v>
@@ -3374,25 +3372,25 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -3401,10 +3399,10 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3419,10 +3417,10 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -3437,16 +3435,16 @@
         <v>1</v>
       </c>
       <c r="V26" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3475,7 +3473,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -3493,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -3502,16 +3500,16 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3520,40 +3518,40 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W27">
         <v>7</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB27" s="7">
         <v>0</v>
@@ -3576,34 +3574,34 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3612,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3621,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3630,28 +3628,28 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <v>1</v>
       </c>
       <c r="V28" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>1</v>
@@ -3677,13 +3675,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -3695,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -3707,55 +3705,55 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z29">
         <v>6</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="7">
         <v>1</v>
@@ -3778,25 +3776,25 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -3811,16 +3809,16 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3829,34 +3827,34 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W30">
         <v>1</v>
       </c>
       <c r="X30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB30" s="7">
         <v>0</v>
@@ -3879,85 +3877,85 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31" s="5">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>7</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
         <v>8</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
-      <c r="V31" s="5">
-        <v>4</v>
-      </c>
-      <c r="W31">
-        <v>7</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>4</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>2</v>
       </c>
       <c r="AB31" s="7">
         <v>1</v>
@@ -3980,7 +3978,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -3989,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7">
         <v>1</v>
@@ -4004,19 +4002,19 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4028,37 +4026,37 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32" s="5">
         <v>7</v>
       </c>
       <c r="W32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>1</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB32" s="7">
         <v>1</v>
@@ -4081,7 +4079,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -4090,10 +4088,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -4102,16 +4100,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -4120,16 +4118,16 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -4138,25 +4136,25 @@
         <v>1</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
       <c r="V33" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA33">
         <v>1</v>
@@ -4182,40 +4180,40 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -4227,13 +4225,13 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>1</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4245,22 +4243,22 @@
         <v>0</v>
       </c>
       <c r="V34" s="5">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
         <v>6</v>
       </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
       <c r="Z34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="7">
         <v>0</v>
@@ -4283,22 +4281,22 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -4307,16 +4305,16 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -4328,40 +4326,40 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V35" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="7">
         <v>0</v>
@@ -4384,13 +4382,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -4399,19 +4397,19 @@
         <v>1</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4426,13 +4424,13 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36">
         <v>1</v>
@@ -4441,28 +4439,28 @@
         <v>1</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V36" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="7">
         <v>1</v>
@@ -4485,7 +4483,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -4494,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7">
         <v>1</v>
@@ -4509,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4527,13 +4525,13 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37">
         <v>1</v>
@@ -4542,28 +4540,28 @@
         <v>1</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V37" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>1</v>
       </c>
       <c r="Y37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB37" s="7">
         <v>1</v>
@@ -4585,87 +4583,8 @@
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>10</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38" s="5">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>6</v>
-      </c>
-      <c r="Z38">
-        <v>7</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
+      <c r="E38" s="8"/>
+      <c r="V38" s="5"/>
       <c r="AB38" s="7">
         <v>0</v>
       </c>
@@ -4686,87 +4605,8 @@
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>10</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>1</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39" s="5">
-        <v>7</v>
-      </c>
-      <c r="W39">
-        <v>7</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AA39">
-        <v>1</v>
-      </c>
+      <c r="E39" s="8"/>
+      <c r="V39" s="5"/>
       <c r="AB39" s="7">
         <v>1</v>
       </c>
@@ -4787,87 +4627,8 @@
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40">
-        <v>4</v>
-      </c>
-      <c r="Y40">
-        <v>5</v>
-      </c>
-      <c r="Z40">
-        <v>8</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
+      <c r="E40" s="8"/>
+      <c r="V40" s="5"/>
       <c r="AB40" s="7">
         <v>0</v>
       </c>
@@ -4888,87 +4649,8 @@
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>7</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-      <c r="T41">
-        <v>1</v>
-      </c>
-      <c r="U41">
-        <v>7</v>
-      </c>
-      <c r="V41" s="5">
-        <v>7</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
-      <c r="AA41">
-        <v>7</v>
-      </c>
+      <c r="E41" s="8"/>
+      <c r="V41" s="5"/>
       <c r="AB41" s="7">
         <v>1</v>
       </c>
@@ -5174,25 +4856,21 @@
     </row>
     <row r="74" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E74" s="8"/>
-      <c r="V74" s="5"/>
       <c r="AD74" s="10"/>
       <c r="AE74" s="12"/>
     </row>
     <row r="75" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E75" s="8"/>
-      <c r="V75" s="5"/>
       <c r="AD75" s="10"/>
       <c r="AE75" s="12"/>
     </row>
     <row r="76" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E76" s="8"/>
-      <c r="V76" s="5"/>
       <c r="AD76" s="10"/>
       <c r="AE76" s="12"/>
     </row>
     <row r="77" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E77" s="8"/>
-      <c r="V77" s="5"/>
       <c r="AD77" s="10"/>
       <c r="AE77" s="12"/>
     </row>
@@ -5306,19 +4984,15 @@
       <c r="AE100" s="12"/>
     </row>
     <row r="101" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E101" s="8"/>
       <c r="AE101" s="12"/>
     </row>
     <row r="102" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E102" s="8"/>
       <c r="AE102" s="12"/>
     </row>
     <row r="103" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E103" s="8"/>
       <c r="AE103" s="12"/>
     </row>
     <row r="104" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="E104" s="8"/>
       <c r="AE104" s="12"/>
     </row>
     <row r="105" spans="5:31" x14ac:dyDescent="0.25">

--- a/Datos/Bases JASP/Binomiales_Wins_x.xlsx
+++ b/Datos/Bases JASP/Binomiales_Wins_x.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Jaime_Lab25\Datos\Bases JASP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Jaime_Lab25\Datos\Bases JASP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Periodo</t>
   </si>
@@ -150,6 +150,42 @@
   </si>
   <si>
     <t>W_Periodo8</t>
+  </si>
+  <si>
+    <t>L_Periodo1</t>
+  </si>
+  <si>
+    <t>L_Periodo2</t>
+  </si>
+  <si>
+    <t>L_Periodo3</t>
+  </si>
+  <si>
+    <t>L_Periodo4</t>
+  </si>
+  <si>
+    <t>L_Periodo5</t>
+  </si>
+  <si>
+    <t>L_Periodo6</t>
+  </si>
+  <si>
+    <t>L_Periodo7</t>
+  </si>
+  <si>
+    <t>L_Periodo8</t>
+  </si>
+  <si>
+    <t>Pre_Periodo1</t>
+  </si>
+  <si>
+    <t>Pre_Periodo2</t>
+  </si>
+  <si>
+    <t>Pre_Periodo3</t>
+  </si>
+  <si>
+    <t>Pre_Periodo4</t>
   </si>
 </sst>
 </file>
@@ -548,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP115"/>
+  <dimension ref="A1:BB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AY20" sqref="AY20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,9 +609,10 @@
     <col min="21" max="21" width="9.140625" customWidth="1"/>
     <col min="22" max="22" width="9.7109375" customWidth="1"/>
     <col min="23" max="33" width="11.42578125" customWidth="1"/>
+    <col min="51" max="54" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -702,8 +739,44 @@
       <c r="AP1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -830,8 +903,44 @@
       <c r="AP2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -958,8 +1067,44 @@
       <c r="AP3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1086,8 +1231,44 @@
       <c r="AP4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1214,8 +1395,44 @@
       <c r="AP5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1342,8 +1559,44 @@
       <c r="AP6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1470,8 +1723,44 @@
       <c r="AP7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1598,8 +1887,44 @@
       <c r="AP8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1726,8 +2051,44 @@
       <c r="AP9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1810,13 +2171,13 @@
         <v>1</v>
       </c>
       <c r="AB10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="11">
         <v>0</v>
@@ -1825,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>10</v>
@@ -1854,8 +2215,44 @@
       <c r="AP10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1941,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="AC11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="9">
         <v>0</v>
       </c>
       <c r="AG11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2039,13 +2436,13 @@
         <v>8</v>
       </c>
       <c r="AB12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="11">
         <v>0</v>
@@ -2054,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="AG12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2140,7 +2537,7 @@
         <v>7</v>
       </c>
       <c r="AB13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="7">
         <v>0</v>
@@ -2149,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="9">
         <v>0</v>
@@ -2158,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2244,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="9">
         <v>0</v>
@@ -2253,13 +2650,13 @@
         <v>0</v>
       </c>
       <c r="AF14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2342,25 +2739,25 @@
         <v>1</v>
       </c>
       <c r="AB15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="9">
         <v>0</v>
       </c>
       <c r="AE15" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="9">
         <v>0</v>
       </c>
       <c r="AG15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2443,13 +2840,13 @@
         <v>1</v>
       </c>
       <c r="AB16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="11">
         <v>0</v>
@@ -2458,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
@@ -2547,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="9">
         <v>0</v>
@@ -2559,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AG17" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -2850,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="9">
         <v>0</v>
@@ -2859,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="11">
         <v>0</v>
@@ -2951,16 +3348,16 @@
         <v>1</v>
       </c>
       <c r="AC21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="9">
         <v>0</v>
       </c>
       <c r="AE21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="11">
         <v>0</v>
@@ -3061,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="AF22" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -3150,13 +3547,13 @@
         <v>1</v>
       </c>
       <c r="AB23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="11">
         <v>0</v>
@@ -3165,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
@@ -3251,13 +3648,13 @@
         <v>1</v>
       </c>
       <c r="AB24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="7">
         <v>0</v>
       </c>
       <c r="AD24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" s="11">
         <v>0</v>
@@ -3361,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="9">
         <v>1</v>
@@ -3453,16 +3850,16 @@
         <v>7</v>
       </c>
       <c r="AB26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="7">
         <v>0</v>
       </c>
       <c r="AD26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="9">
         <v>0</v>
@@ -3554,16 +3951,16 @@
         <v>2</v>
       </c>
       <c r="AB27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="7">
         <v>1</v>
       </c>
       <c r="AD27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="9">
         <v>0</v>
@@ -3655,19 +4052,19 @@
         <v>1</v>
       </c>
       <c r="AB28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="11">
         <v>0</v>
       </c>
       <c r="AF28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="11">
         <v>0</v>
@@ -3863,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="11">
         <v>1</v>
@@ -3958,22 +4355,22 @@
         <v>8</v>
       </c>
       <c r="AB31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="9">
         <v>0</v>
       </c>
       <c r="AG31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
@@ -4062,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="9">
         <v>0</v>
@@ -4074,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
@@ -4163,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="9">
         <v>0</v>
@@ -4172,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="11">
         <v>0</v>
@@ -4267,16 +4664,16 @@
         <v>0</v>
       </c>
       <c r="AD34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
@@ -4362,13 +4759,13 @@
         <v>1</v>
       </c>
       <c r="AB35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="11">
         <v>0</v>
@@ -4377,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
@@ -4463,22 +4860,22 @@
         <v>0</v>
       </c>
       <c r="AB36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="7">
         <v>0</v>
       </c>
       <c r="AD36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
@@ -4567,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="9">
         <v>0</v>
@@ -4579,112 +4976,48 @@
         <v>0</v>
       </c>
       <c r="AG37" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="V38" s="5"/>
-      <c r="AB38" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="11">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="V39" s="5"/>
-      <c r="AB39" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="V40" s="5"/>
-      <c r="AB40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="11">
-        <v>0</v>
-      </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="V41" s="5"/>
-      <c r="AB41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="11">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="V42" s="5"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="12"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="V43" s="5"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="12"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="V44" s="5"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="12"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
       <c r="V45" s="5"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="12"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
@@ -4941,22 +5274,18 @@
     </row>
     <row r="91" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
-      <c r="AD91" s="10"/>
       <c r="AE91" s="12"/>
     </row>
     <row r="92" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
-      <c r="AD92" s="10"/>
       <c r="AE92" s="12"/>
     </row>
     <row r="93" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
-      <c r="AD93" s="10"/>
       <c r="AE93" s="12"/>
     </row>
     <row r="94" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
-      <c r="AD94" s="10"/>
       <c r="AE94" s="12"/>
     </row>
     <row r="95" spans="5:31" x14ac:dyDescent="0.25">
@@ -5015,18 +5344,6 @@
     </row>
     <row r="111" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AE111" s="12"/>
-    </row>
-    <row r="112" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="AE112" s="12"/>
-    </row>
-    <row r="113" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE113" s="12"/>
-    </row>
-    <row r="114" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE114" s="12"/>
-    </row>
-    <row r="115" spans="31:31" x14ac:dyDescent="0.25">
-      <c r="AE115" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
